--- a/doc/datasets.xlsx
+++ b/doc/datasets.xlsx
@@ -353,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -383,9 +383,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -715,7 +712,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="K3" sqref="K3:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -748,66 +745,66 @@
       </c>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-    </row>
-    <row r="3" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A2" s="15"/>
+    </row>
+    <row r="3" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -864,7 +861,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -921,7 +918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -940,7 +937,7 @@
       <c r="F6" s="7">
         <v>43</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>8</v>
       </c>
       <c r="H6" s="8">
@@ -978,7 +975,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1031,11 +1028,11 @@
       <c r="R7" s="8">
         <v>4</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="S7" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1060,7 +1057,7 @@
       <c r="H8" s="8">
         <v>3</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="10" t="s">
         <v>54</v>
       </c>
       <c r="J8" s="5"/>
@@ -1088,11 +1085,11 @@
       <c r="R8" s="8">
         <v>3</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S8" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1117,7 +1114,7 @@
       <c r="H9" s="8">
         <v>5</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>55</v>
       </c>
       <c r="J9" s="5"/>
@@ -1145,11 +1142,11 @@
       <c r="R9" s="8">
         <v>5</v>
       </c>
-      <c r="S9" s="11" t="s">
+      <c r="S9" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1168,13 +1165,13 @@
       <c r="F10" s="7">
         <v>51</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="8">
         <v>7</v>
       </c>
       <c r="H10" s="8">
         <v>3</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>56</v>
       </c>
       <c r="J10" s="5"/>
@@ -1202,11 +1199,11 @@
       <c r="R10" s="8">
         <v>4</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="S10" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1231,7 +1228,7 @@
       <c r="H11" s="8">
         <v>7</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>57</v>
       </c>
       <c r="J11" s="5"/>
@@ -1259,11 +1256,11 @@
       <c r="R11" s="8">
         <v>3</v>
       </c>
-      <c r="S11" s="11" t="s">
+      <c r="S11" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1288,7 +1285,7 @@
       <c r="H12" s="8">
         <v>4</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>58</v>
       </c>
       <c r="J12" s="5"/>
@@ -1320,7 +1317,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1377,7 +1374,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1434,7 +1431,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1491,7 +1488,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -1548,7 +1545,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -1605,7 +1602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -1624,7 +1621,7 @@
       <c r="F18" s="7">
         <v>48</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="8">
         <v>8</v>
       </c>
       <c r="H18" s="8">
@@ -1662,7 +1659,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -1681,7 +1678,7 @@
       <c r="F19" s="7">
         <v>50</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="8">
         <v>6</v>
       </c>
       <c r="H19" s="8">
@@ -1719,7 +1716,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -1776,60 +1773,60 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
+    <row r="21" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
         <v>18</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="B21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>55</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
         <v>40</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <v>19</v>
       </c>
-      <c r="H21" s="14">
-        <v>3</v>
-      </c>
-      <c r="I21" s="15" t="s">
+      <c r="H21" s="13">
+        <v>3</v>
+      </c>
+      <c r="I21" s="14" t="s">
         <v>67</v>
       </c>
       <c r="J21" s="5"/>
-      <c r="K21" s="12">
+      <c r="K21" s="11">
         <v>18</v>
       </c>
-      <c r="L21" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="N21" s="13" t="s">
+      <c r="L21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="12">
         <v>70</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="12">
         <v>37</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="13">
         <v>44</v>
       </c>
-      <c r="R21" s="14">
+      <c r="R21" s="13">
         <v>4</v>
       </c>
-      <c r="S21" s="15" t="s">
+      <c r="S21" s="14" t="s">
         <v>49</v>
       </c>
     </row>
